--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7281F80-D5DE-4119-B5CB-11B7BEAA2144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF1048-9EB5-4264-BC4B-8906956F6A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>testcase18_parquet_dbtable_match_likeobject</t>
   </si>
   <si>
-    <t>/app/test/results/</t>
-  </si>
-  <si>
     <t>testcase22_bigquery_mysql_match</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>test/results/</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,11 +666,11 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C26" si="0">_xlfn.CONCAT("/app/test/testcases/",B2,".xlsx")</f>
-        <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
+        <v>test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,11 +681,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
+        <f t="shared" ref="C3:C31" si="0">_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
+        <v>test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,10 +697,10 @@
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
+        <v>test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
+        <v>test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
+        <v>test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
+        <v>test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
+        <v>test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,10 +772,10 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
+        <v>test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
+        <v>test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
+        <v>test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
+        <v>test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,10 +832,10 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
+        <v>test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
+        <v>test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
+        <v>test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
+        <v>test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
+        <v>test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
+        <v>test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
+        <v>test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
+        <v>test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
+        <v>test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
+        <v>test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +978,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
+        <v>test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
+        <v>test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1008,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
+        <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
+        <v>test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
-        <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
-        <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,14 +1068,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
-        <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,14 +1083,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
-        <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,14 +1098,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>
-        <v>/app/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,8 +1153,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C27 C22" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF1048-9EB5-4264-BC4B-8906956F6A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663F1FF-76CF-4527-BEA4-C796F84C9BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
     <sheet name="protocoltestcasedetails" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">protocoltestcasedetails!$A$1:$D$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -633,7 +636,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1063,7 @@
         <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,6 +1148,7 @@
       <c r="D37" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D31" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7281F80-D5DE-4119-B5CB-11B7BEAA2144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190BE9D8-4161-4A2B-B34F-D9DC26F0C667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>/app/test/results/</t>
   </si>
   <si>
-    <t>testcase22_bigquery_mysql_match</t>
-  </si>
-  <si>
     <t>testcase19_oracle_mysql_match_manual</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>testcase27_csv_csv_bigdata_match</t>
   </si>
   <si>
-    <t>testcase21_mysql_csv_match</t>
-  </si>
-  <si>
     <t>testcase26_names_fullname_etljob</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>testcase22_bigquery_bigquery_match</t>
+  </si>
+  <si>
+    <t>testcase21_csv_bigquery_match</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase21_mysql_csv_match.xlsx</v>
+        <v>/app/test/testcases/testcase21_csv_bigquery_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +978,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
+        <v>/app/test/testcases/testcase22_bigquery_bigquery_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1008,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
         <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
         <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,14 +1068,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
         <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,14 +1083,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
         <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,14 +1098,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>
         <v>/app/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\datf_core\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190BE9D8-4161-4A2B-B34F-D9DC26F0C667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F6FD10-517A-4611-B26B-CD684AE3F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>testcase18_parquet_dbtable_match_likeobject</t>
   </si>
   <si>
-    <t>/app/test/results/</t>
-  </si>
-  <si>
     <t>testcase19_oracle_mysql_match_manual</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>testcase21_csv_bigquery_match</t>
+  </si>
+  <si>
+    <t>test/results/</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,11 +666,11 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C26" si="0">_xlfn.CONCAT("/app/test/testcases/",B2,".xlsx")</f>
-        <v>/app/test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
+        <f>_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
+        <v>test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,11 +681,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase2_parquet_parquet_match.xlsx</v>
+        <f t="shared" ref="C3:C31" si="0">_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
+        <v>test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,10 +697,10 @@
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase3_csv_csv_match.xlsx</v>
+        <v>test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
+        <v>test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase5_csv_parquet_match.xlsx</v>
+        <v>test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
+        <v>test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase7_json_json_mismatch.xlsx</v>
+        <v>test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,10 +772,10 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase8_json_json_match.xlsx</v>
+        <v>test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase9_json_parquet_match.xlsx</v>
+        <v>test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,10 +802,10 @@
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
+        <v>test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
+        <v>test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,10 +832,10 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
+        <v>test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
+        <v>test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
+        <v>test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
+        <v>test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
+        <v>test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
+        <v>test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
+        <v>test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +933,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
+        <v>test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +948,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
+        <v>test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase21_csv_bigquery_match.xlsx</v>
+        <v>test/testcases/testcase21_csv_bigquery_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +978,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase22_bigquery_bigquery_match.xlsx</v>
+        <v>test/testcases/testcase22_bigquery_bigquery_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +993,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
+        <v>test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1008,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
+        <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1023,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/app/test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
+        <v>test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1038,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B27,".xlsx")</f>
-        <v>/app/test/testcases/testcase26_names_fullname_etljob.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,14 +1053,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B28,".xlsx")</f>
-        <v>/app/test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,14 +1068,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B29,".xlsx")</f>
-        <v>/app/test/testcases/testcase28_manual_sql_notifications.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,14 +1083,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B30,".xlsx")</f>
-        <v>/app/test/testcases/testcase29_manual_sql_fullname.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,14 +1098,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>_xlfn.CONCAT("/app/test/testcases/",B31,".xlsx")</f>
-        <v>/app/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,8 +1153,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C27 C22" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663F1FF-76CF-4527-BEA4-C796F84C9BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD4792-14E0-47FC-A263-302766A0E8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
     <sheet name="protocoltestcasedetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">protocoltestcasedetails!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">protocoltestcasedetails!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Sno.</t>
   </si>
@@ -141,9 +141,6 @@
     <t>testcase23_parquet_snowflake_mismatch</t>
   </si>
   <si>
-    <t>testcase25_oracle_oracle_etljob</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -153,22 +150,7 @@
     <t>execute</t>
   </si>
   <si>
-    <t>testcase27_csv_csv_bigdata_match</t>
-  </si>
-  <si>
     <t>testcase21_mysql_csv_match</t>
-  </si>
-  <si>
-    <t>testcase26_names_fullname_etljob</t>
-  </si>
-  <si>
-    <t>testcase28_manual_sql_notifications</t>
-  </si>
-  <si>
-    <t>testcase29_manual_sql_fullname</t>
-  </si>
-  <si>
-    <t>testcase30_csv_csv_3mill50cols_content</t>
   </si>
   <si>
     <t>DATFDemo</t>
@@ -566,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,7 +655,7 @@
         <v>test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,11 +666,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C31" si="0">_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
+        <f t="shared" ref="C3:C25" si="0">_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
         <v>test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +685,7 @@
         <v>test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,7 +700,7 @@
         <v>test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,7 +715,7 @@
         <v>test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +730,7 @@
         <v>test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,7 +745,7 @@
         <v>test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +760,7 @@
         <v>test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +775,7 @@
         <v>test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +790,7 @@
         <v>test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,7 +805,7 @@
         <v>test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +820,7 @@
         <v>test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +835,7 @@
         <v>test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,7 +850,7 @@
         <v>test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,7 +865,7 @@
         <v>test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +880,7 @@
         <v>test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,7 +895,7 @@
         <v>test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,7 +910,7 @@
         <v>test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +925,7 @@
         <v>test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,7 +940,7 @@
         <v>test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,14 +948,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +970,7 @@
         <v>test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +985,7 @@
         <v>test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,147 +993,57 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D31" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
+  <autoFilter ref="A1:D25" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD4792-14E0-47FC-A263-302766A0E8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B056CB-0D3A-4683-845D-6ACC191A9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Sno.</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>test/results/</t>
+  </si>
+  <si>
+    <t>testcase25_oracle_oracle_etljob</t>
+  </si>
+  <si>
+    <t>testcase26_names_fullname_etljob</t>
+  </si>
+  <si>
+    <t>testcase27_csv_csv_bigdata_match</t>
+  </si>
+  <si>
+    <t>testcase28_manual_sql_notifications</t>
+  </si>
+  <si>
+    <t>testcase29_manual_sql_fullname</t>
+  </si>
+  <si>
+    <t>testcase30_csv_csv_3mill50cols_content</t>
   </si>
 </sst>
 </file>
@@ -548,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -617,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,46 +1022,100 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f t="shared" ref="C26" si="1">_xlfn.CONCAT("test/testcases/",B26,".xlsx")</f>
+        <v>test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f t="shared" ref="C27:C31" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
+        <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D25" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B056CB-0D3A-4683-845D-6ACC191A9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D529C3-EF70-44E1-A0E9-31B5953CC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Sno.</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>testcase30_csv_csv_3mill50cols_content</t>
+  </si>
+  <si>
+    <t>testcase31_delta_parquet_manual</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1047,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" ref="C27:C31" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
+        <f t="shared" ref="C27:C32" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
         <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1108,6 +1111,21 @@
         <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase31_delta_parquet_manual.xlsx</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McKessoon\Azure Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D529C3-EF70-44E1-A0E9-31B5953CC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE09148-4927-41CF-9A6F-ED3728AEA86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Sno.</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>testcase31_delta_parquet_manual</t>
+  </si>
+  <si>
+    <t>testcase32_adls_parquet_to_delta_auto</t>
+  </si>
+  <si>
+    <t>testcase33_adls_parquet_adls_csv_auto</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1053,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" ref="C27:C32" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
+        <f t="shared" ref="C27:C34" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
         <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1127,6 +1133,36 @@
       </c>
       <c r="D32" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase32_adls_parquet_to_delta_auto.xlsx</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase33_adls_parquet_adls_csv_auto.xlsx</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McKessoon\Azure Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE09148-4927-41CF-9A6F-ED3728AEA86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D29BD-0B56-41D1-A9E2-10483602FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>testcase20_oracle_bigquery_match_manual</t>
   </si>
   <si>
-    <t>testcase23_parquet_snowflake_mismatch</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>testcase33_adls_parquet_adls_csv_auto</t>
+  </si>
+  <si>
+    <t>testcase23_parquet_delta_ingestion</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,14 +975,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase21_mysql_csv_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>test/testcases/testcase22_bigquery_mysql_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,14 +1005,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
+        <v>test/testcases/testcase23_parquet_delta_ingestion.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,14 +1020,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,14 +1035,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" ref="C26" si="1">_xlfn.CONCAT("test/testcases/",B26,".xlsx")</f>
         <v>test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,14 +1050,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" ref="C27:C34" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
         <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,14 +1065,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,14 +1080,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,14 +1095,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,14 +1110,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,14 +1125,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase31_delta_parquet_manual.xlsx</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,14 +1140,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase32_adls_parquet_to_delta_auto.xlsx</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,14 +1155,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>test/testcases/testcase33_adls_parquet_adls_csv_auto.xlsx</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat.yadav\Downloads\McKesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D29BD-0B56-41D1-A9E2-10483602FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D32B2-FA2F-4210-810B-A886B5628FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Sno.</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>testcase23_parquet_delta_ingestion</t>
+  </si>
+  <si>
+    <t>testcase50_parquet_delta_match</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -265,12 +268,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -291,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +819,7 @@
         <v>test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,7 +864,7 @@
         <v>test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +894,7 @@
         <v>test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,7 +909,7 @@
         <v>test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" ref="C27:C34" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
+        <f t="shared" ref="C27:C35" si="2">_xlfn.CONCAT("test/testcases/",B27,".xlsx")</f>
         <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1147,7 +1164,7 @@
         <v>test/testcases/testcase32_adls_parquet_to_delta_auto.xlsx</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,6 +1179,21 @@
         <v>test/testcases/testcase33_adls_parquet_adls_csv_auto.xlsx</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>test/testcases/testcase50_parquet_delta_match.xlsx</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1169,7 +1201,7 @@
   <autoFilter ref="A1:D25" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F6FD10-517A-4611-B26B-CD684AE3F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8438884D-D8EE-4104-8C2E-1CD122EEACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Sno.</t>
   </si>
@@ -60,15 +60,9 @@
     <t>protocol_application_name</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
     <t>protocol_run_environment</t>
   </si>
   <si>
-    <t>dev</t>
-  </si>
-  <si>
     <t>protocol_version</t>
   </si>
   <si>
@@ -178,6 +172,18 @@
   </si>
   <si>
     <t>test/results/</t>
+  </si>
+  <si>
+    <t>protocol_engine</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>pos_telemetry</t>
+  </si>
+  <si>
+    <t>pyspark</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,26 +610,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{CDCF9CC6-088E-4E8F-A034-9352BEE756E9}">
+      <formula1>"pyspark,docker,databricks"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -632,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -655,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,14 +682,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
         <v>test/testcases/testcase1_parquet_parquet_mismatch.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,14 +697,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:C31" si="0">_xlfn.CONCAT("test/testcases/",B3,".xlsx")</f>
         <v>test/testcases/testcase2_parquet_parquet_match.xlsx</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,14 +712,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase3_csv_csv_match.xlsx</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,14 +727,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase4_csv_csv_mismatch.xlsx</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,14 +742,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase5_csv_parquet_match.xlsx</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,14 +757,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase6_csv_parquet_mismatch.xlsx</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,14 +772,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase7_json_json_mismatch.xlsx</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,14 +787,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase8_json_json_match.xlsx</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,14 +802,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase9_json_parquet_match.xlsx</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,14 +817,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase10_json_parquet_mismatch.xlsx</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,14 +832,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase11_parquet_parquet_match_manual.xlsx</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,14 +847,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase12_parquet_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,14 +862,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase13_csv_parquet_match_manuel.xlsx</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,14 +877,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase14_csv_parquet_mismatch_manual.xlsx</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,14 +892,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase15_parquet_parquet_match_likeobject.xlsx</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,14 +907,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase16_parquet_parquet_mismatch_likeobject.xlsx</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,14 +922,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase17_dbtable_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,14 +937,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase18_parquet_dbtable_match_likeobject.xlsx</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,14 +952,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase19_oracle_mysql_match_manual.xlsx</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,14 +967,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase20_oracle_bigquery_match_manual.xlsx</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,14 +982,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase21_csv_bigquery_match.xlsx</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,14 +997,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase22_bigquery_bigquery_match.xlsx</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,14 +1012,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase23_parquet_snowflake_mismatch.xlsx</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,14 +1027,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase24_snowflake_snowflake_etljob.xlsx</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,14 +1042,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase25_oracle_oracle_etljob.xlsx</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,14 +1057,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase26_names_fullname_etljob.xlsx</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,14 +1072,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase27_csv_csv_bigdata_match.xlsx</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,14 +1087,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase28_manual_sql_notifications.xlsx</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,14 +1102,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase29_manual_sql_fullname.xlsx</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,14 +1117,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">

--- a/datf_core/test/testprotocol/testprotocol.xlsx
+++ b/datf_core/test/testprotocol/testprotocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8438884D-D8EE-4104-8C2E-1CD122EEACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15939F6F-C168-488A-A9C9-96084C664A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Sno.</t>
   </si>
@@ -174,16 +174,10 @@
     <t>test/results/</t>
   </si>
   <si>
-    <t>protocol_engine</t>
-  </si>
-  <si>
     <t>sit</t>
   </si>
   <si>
     <t>pos_telemetry</t>
-  </si>
-  <si>
-    <t>pyspark</t>
   </si>
 </sst>
 </file>
@@ -567,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,20 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{CDCF9CC6-088E-4E8F-A034-9352BEE756E9}">
-      <formula1>"pyspark,docker,databricks"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -651,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
